--- a/2022/Realme/May/16.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/16.05.2022/realme Bank Statement May-20222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="May-2022" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -310,9 +310,6 @@
     <t>02.05.2022</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>05.05.2022</t>
   </si>
   <si>
@@ -371,6 +368,12 @@
   </si>
   <si>
     <t>RTGS to NRB A.M Tipu Boss Account=950000 | 2750000-950000=1800000(Boss+)</t>
+  </si>
+  <si>
+    <t>17.05.2022</t>
+  </si>
+  <si>
+    <t>Courier</t>
   </si>
 </sst>
 </file>
@@ -2408,6 +2411,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2435,12 +2450,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2451,12 +2460,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3275,7 +3278,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="19">
         <v>0</v>
@@ -3296,7 +3299,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="19">
         <v>0</v>
@@ -3317,7 +3320,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="205" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="192">
         <v>2200000</v>
@@ -3333,7 +3336,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="15"/>
@@ -3342,7 +3345,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="15"/>
       <c r="B14" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="19">
         <v>0</v>
@@ -3363,7 +3366,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="19">
         <v>0</v>
@@ -3384,7 +3387,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
       <c r="B16" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="19">
         <v>0</v>
@@ -3405,7 +3408,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="15"/>
       <c r="B17" s="205" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="192">
         <v>1300000</v>
@@ -3421,7 +3424,7 @@
         <v>89</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="15"/>
@@ -3430,7 +3433,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="15"/>
       <c r="B18" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="19">
         <v>0</v>
@@ -3451,7 +3454,7 @@
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
@@ -3472,7 +3475,7 @@
     <row r="20" spans="1:10">
       <c r="A20" s="15"/>
       <c r="B20" s="205" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="192">
         <v>950000</v>
@@ -3488,7 +3491,7 @@
         <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="15"/>
@@ -3985,9 +3988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4004,67 +4007,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="236"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4073,52 +4076,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="232" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="241" t="s">
+      <c r="J4" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="241" t="s">
+      <c r="L4" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="241" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="247" t="s">
+      <c r="M4" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="245" t="s">
+      <c r="O4" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="245" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="64" t="s">
@@ -4131,22 +4134,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="238"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="244"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="246"/>
       <c r="Q5" s="69" t="s">
         <v>32</v>
       </c>
@@ -4241,7 +4244,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="74"/>
@@ -4277,7 +4280,7 @@
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="81">
         <v>500</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="81"/>
       <c r="C10" s="74"/>
@@ -4353,7 +4356,7 @@
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
       <c r="A11" s="73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="74"/>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1">
       <c r="A12" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="81">
         <v>500</v>
@@ -4427,7 +4430,7 @@
     </row>
     <row r="13" spans="1:24" s="9" customFormat="1">
       <c r="A13" s="73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="81"/>
       <c r="C13" s="74"/>
@@ -4463,7 +4466,7 @@
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1">
       <c r="A14" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="74"/>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1">
       <c r="A15" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="81">
         <v>500</v>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="16" spans="1:24" s="9" customFormat="1">
       <c r="A16" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="74"/>
@@ -4573,7 +4576,7 @@
     </row>
     <row r="17" spans="1:23" s="9" customFormat="1">
       <c r="A17" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="74"/>
@@ -4606,7 +4609,9 @@
       <c r="W17" s="26"/>
     </row>
     <row r="18" spans="1:23" s="9" customFormat="1">
-      <c r="A18" s="73"/>
+      <c r="A18" s="73" t="s">
+        <v>112</v>
+      </c>
       <c r="B18" s="81"/>
       <c r="C18" s="74"/>
       <c r="D18" s="82"/>
@@ -4618,13 +4623,15 @@
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
       <c r="L18" s="82"/>
-      <c r="M18" s="112"/>
+      <c r="M18" s="112">
+        <v>110</v>
+      </c>
       <c r="N18" s="84"/>
       <c r="O18" s="82"/>
       <c r="P18" s="84"/>
       <c r="Q18" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R18" s="79"/>
       <c r="S18" s="4"/>
@@ -5126,7 +5133,7 @@
       </c>
       <c r="M37" s="115">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N37" s="100">
         <f t="shared" si="1"/>
@@ -5142,7 +5149,7 @@
       </c>
       <c r="Q37" s="102">
         <f>SUM(Q6:Q36)</f>
-        <v>11638</v>
+        <v>11748</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7144,6 +7151,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7160,9 +7170,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7257,7 +7264,7 @@
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
       <c r="A2" s="256" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="257"/>
       <c r="C2" s="257"/>
@@ -9648,7 +9655,7 @@
         <v>18830</v>
       </c>
       <c r="D40" s="181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
@@ -9848,7 +9855,7 @@
         <v>260000</v>
       </c>
       <c r="D43" s="181" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="116"/>
@@ -9902,7 +9909,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="179">
         <v>1000</v>
@@ -9965,7 +9972,7 @@
         <v>87500</v>
       </c>
       <c r="D45" s="197" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="41"/>
       <c r="G45" s="116"/>
@@ -10022,7 +10029,7 @@
         <v>104090</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="41"/>
       <c r="G46" s="116"/>
@@ -10249,14 +10256,14 @@
     </row>
     <row r="50" spans="1:50" ht="14.25">
       <c r="A50" s="178" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="178"/>
       <c r="C50" s="179">
         <v>14240</v>
       </c>
       <c r="D50" s="181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="41"/>
       <c r="G50" s="116"/>
@@ -14694,7 +14701,7 @@
   </sheetPr>
   <dimension ref="A1:AB217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -14743,7 +14750,7 @@
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
       <c r="A3" s="272" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="273"/>
       <c r="C3" s="273"/>
@@ -15420,7 +15427,7 @@
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="22.5" thickBot="1">
       <c r="A25" s="224" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="225">
         <v>31000</v>
@@ -15436,7 +15443,7 @@
     </row>
     <row r="26" spans="1:28" ht="22.5" thickBot="1">
       <c r="A26" s="266" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="267"/>
       <c r="C26" s="267"/>
